--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -512,10 +536,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -559,28 +583,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3">
+      <c r="A15" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -605,28 +629,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +738,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -761,28 +785,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -807,28 +831,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -916,10 +940,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -963,28 +987,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1009,28 +1033,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1176,10 +1200,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1223,28 +1247,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1269,28 +1293,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1407,10 +1431,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1454,28 +1478,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="A46" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1500,28 +1524,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1667,10 +1691,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1714,28 +1738,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="A55" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1760,28 +1784,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="3">
+      <c r="I57" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1898,10 +1922,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1945,28 +1969,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1991,28 +2015,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2535,10 +2559,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2582,28 +2606,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2628,28 +2652,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2969,10 +2993,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3016,28 +3040,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3062,28 +3086,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4302,10 +4326,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4349,28 +4373,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
+      <c r="C146" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="3">
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4395,28 +4419,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4649,10 +4673,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
